--- a/data/distance_angle/graph.xlsx
+++ b/data/distance_angle/graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghrms\PycharmProjects\project\data\distance_angle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A5430-FF17-42FB-9419-9CC7E932A12F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38429D6F-1C51-4C35-852A-0F514B9DF3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C29FE5F-75D5-450A-8428-F62478EF3159}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C29FE5F-75D5-450A-8428-F62478EF3159}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>stress</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -443,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BB20F5-4002-430A-B433-AD493C661C61}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -471,8 +471,20 @@
       <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -494,8 +506,20 @@
       <c r="G2" s="3">
         <v>6.6806680668066803E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="1">
+        <v>3782.5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3273.5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -517,8 +541,20 @@
       <c r="G3" s="3">
         <v>4.8704870487048697E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1">
+        <v>2785.5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2348.4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -540,8 +576,20 @@
       <c r="G4" s="3">
         <v>3.83038303830383E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1">
+        <v>2267.6999999999998</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1817.8</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.81E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -563,8 +611,14 @@
       <c r="G5" s="3">
         <v>3.9403940394039397E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1">
+        <v>1995.1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.2599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -586,8 +640,14 @@
       <c r="G6" s="3">
         <v>3.6103610361036098E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="1">
+        <v>1848.2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.98E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -603,8 +663,14 @@
       <c r="E7" s="3">
         <v>3.5303530353035302E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="1">
+        <v>1731.3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -620,8 +686,14 @@
       <c r="E8" s="3">
         <v>3.0803080308030799E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="1">
+        <v>1603</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.98E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -637,8 +709,14 @@
       <c r="E9" s="3">
         <v>2.9602960296029601E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="1">
+        <v>1484.2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.6700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -654,8 +732,14 @@
       <c r="E10" s="3">
         <v>2.7002700270026998E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="1">
+        <v>1364.8</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -671,8 +755,14 @@
       <c r="E11" s="3">
         <v>2.3002300230023E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="1">
+        <v>1288.2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.41E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -688,8 +778,14 @@
       <c r="E12" s="3">
         <v>2.0502050205020501E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="1">
+        <v>1227.5999999999999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.35E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -705,8 +801,14 @@
       <c r="E13" s="3">
         <v>5.0005000500049999E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="1">
+        <v>1153.5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -722,8 +824,14 @@
       <c r="E14" s="3">
         <v>1.47014701470147E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="1">
+        <v>1032.0999999999999</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.83E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -739,8 +847,14 @@
       <c r="E15" s="3">
         <v>1.27012701270127E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="1">
+        <v>945.2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>15</v>
       </c>
